--- a/code/data/Book1.xlsx
+++ b/code/data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\cleartrip\code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\clear-cleartrip\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A13330-2079-4C63-8A4F-DAA77875D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496A5CDD-2239-48E3-839A-3D3F6F7F7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7ED41358-508F-4DD1-A46C-AD850A808039}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="209">
   <si>
     <t>Pre-Assigned No.</t>
   </si>
@@ -146,36 +146,12 @@
     <t>Supplier Pin Code</t>
   </si>
   <si>
-    <t>SPINV202111724</t>
-  </si>
-  <si>
-    <t>SINV11120014950</t>
-  </si>
-  <si>
-    <t>VCVEND24592</t>
-  </si>
-  <si>
-    <t>GRT HOTELS AND RESORTS PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>hotel.accounts@cleartrip.com</t>
-  </si>
-  <si>
-    <t>241221164190</t>
-  </si>
-  <si>
     <t>Booking</t>
   </si>
   <si>
-    <t>36AAACG3608B1Z7</t>
-  </si>
-  <si>
     <t>Hotel-Dom</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>LC-001</t>
   </si>
   <si>
@@ -188,18 +164,9 @@
     <t>B2B</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>998552</t>
-  </si>
-  <si>
     <t>INV</t>
   </si>
   <si>
-    <t>500072</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -215,34 +182,494 @@
     <t>MH</t>
   </si>
   <si>
-    <t>400086</t>
-  </si>
-  <si>
-    <t>SPINV202111728</t>
-  </si>
-  <si>
-    <t>SINV11120014954</t>
-  </si>
-  <si>
-    <t>VCVEND24657</t>
-  </si>
-  <si>
-    <t>HOTEL YOGIRAJ</t>
-  </si>
-  <si>
-    <t>27AMBPG9629G1ZY</t>
-  </si>
-  <si>
     <t>Invoice No</t>
+  </si>
+  <si>
+    <t>SPINV2526000891</t>
+  </si>
+  <si>
+    <t>SINV25260000929</t>
+  </si>
+  <si>
+    <t>VCVEND06978</t>
+  </si>
+  <si>
+    <t>HOTEL MOHAN CONTINENTAL</t>
+  </si>
+  <si>
+    <t>info@mohancontinental.com</t>
+  </si>
+  <si>
+    <t>03AACCM3872B1ZY</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>SPINV2526001069</t>
+  </si>
+  <si>
+    <t>SINV25260001110</t>
+  </si>
+  <si>
+    <t>VCVEND08888</t>
+  </si>
+  <si>
+    <t>ATTISH KUMAR VERMA</t>
+  </si>
+  <si>
+    <t>verma.piyush080@gmail.com</t>
+  </si>
+  <si>
+    <t>05AAJPV7456J1Z2</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>249401</t>
+  </si>
+  <si>
+    <t>SPINV2526001233</t>
+  </si>
+  <si>
+    <t>SINV25260001274</t>
+  </si>
+  <si>
+    <t>VCVEND10924</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HARMONY CORP</t>
+  </si>
+  <si>
+    <t>info@hotelfairway.com</t>
+  </si>
+  <si>
+    <t>03AAEFH2816D1Z1</t>
+  </si>
+  <si>
+    <t>143001</t>
+  </si>
+  <si>
+    <t>SPINV2526001419</t>
+  </si>
+  <si>
+    <t>SINV25260001460</t>
+  </si>
+  <si>
+    <t>VCVEND12686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORANGE INN PRIVATE LTD
+</t>
+  </si>
+  <si>
+    <t>info@orangehotel35.com</t>
+  </si>
+  <si>
+    <t>04AAACO5961F1ZM</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>SPINV2526001731</t>
+  </si>
+  <si>
+    <t>SINV25260001772</t>
+  </si>
+  <si>
+    <t>VCVEND15975</t>
+  </si>
+  <si>
+    <t>R K RESIDENCY</t>
+  </si>
+  <si>
+    <t>reservation@rkresidency.co.in</t>
+  </si>
+  <si>
+    <t>33AAUFR7836DIZU</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>SPINV2526001845</t>
+  </si>
+  <si>
+    <t>SINV25260001886</t>
+  </si>
+  <si>
+    <t>VCVEND17394</t>
+  </si>
+  <si>
+    <t>HOTEL MADHUSHRIE</t>
+  </si>
+  <si>
+    <t>HOTELMADHUSHRIE@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>09AAFPN2676LIZ6</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>SPINV2526002099</t>
+  </si>
+  <si>
+    <t>SINV25260002141</t>
+  </si>
+  <si>
+    <t>VCVEND21283</t>
+  </si>
+  <si>
+    <t>KOSTAMAR BEACH RESORT</t>
+  </si>
+  <si>
+    <t>account@kostamarbeachresort.com</t>
+  </si>
+  <si>
+    <t>26AAMFK7703L1ZX</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>SPINV2526002151</t>
+  </si>
+  <si>
+    <t>SINV25260002194</t>
+  </si>
+  <si>
+    <t>VCVEND22982</t>
+  </si>
+  <si>
+    <t>ABHEY POONIA</t>
+  </si>
+  <si>
+    <t>om@thenikunjhotels.com</t>
+  </si>
+  <si>
+    <t>06AEKPP9788E3ZR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>SPINV2526002578</t>
+  </si>
+  <si>
+    <t>SINV25260002625</t>
+  </si>
+  <si>
+    <t>VCVEND28686</t>
+  </si>
+  <si>
+    <t>ARCOT WOODLANDS HOTELS</t>
+  </si>
+  <si>
+    <t>BOOKING.AWH@GNANHOTELS.COM</t>
+  </si>
+  <si>
+    <t>33AAOFG8008U1Z2</t>
+  </si>
+  <si>
+    <t>SPINV2526002694</t>
+  </si>
+  <si>
+    <t>SINV25260002742</t>
+  </si>
+  <si>
+    <t>VCVEND29719</t>
+  </si>
+  <si>
+    <t>AGARWAL HOTELS &amp; RESORTS</t>
+  </si>
+  <si>
+    <t>hotelcontinentalblue@gmail.com</t>
+  </si>
+  <si>
+    <t>08AAXFA9072D1Z1</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>334001</t>
+  </si>
+  <si>
+    <t>SPINV2526003627</t>
+  </si>
+  <si>
+    <t>SINV25260003681</t>
+  </si>
+  <si>
+    <t>VCVEND37825</t>
+  </si>
+  <si>
+    <t>SHEILA DHODY</t>
+  </si>
+  <si>
+    <t>sales@casaboutiquehotels.com</t>
+  </si>
+  <si>
+    <t>30AAFPD2633P1ZY</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>403509</t>
+  </si>
+  <si>
+    <t>SPINV2526003732</t>
+  </si>
+  <si>
+    <t>SINV25260003786</t>
+  </si>
+  <si>
+    <t>VCVEND38097</t>
+  </si>
+  <si>
+    <t>ROSEWOOD HOSPITALITY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>bhimtal@rosewoodhospitality@gmail.com</t>
+  </si>
+  <si>
+    <t>05AACCS6304C1ZX</t>
+  </si>
+  <si>
+    <t>265313</t>
+  </si>
+  <si>
+    <t>SPINV2526003807</t>
+  </si>
+  <si>
+    <t>SINV25260003861</t>
+  </si>
+  <si>
+    <t>VCVEND38407</t>
+  </si>
+  <si>
+    <t>Cyber Tatva Llp</t>
+  </si>
+  <si>
+    <t>ops@wowstayz.fun</t>
+  </si>
+  <si>
+    <t>05AAMFC4129L1ZB</t>
+  </si>
+  <si>
+    <t>248001</t>
+  </si>
+  <si>
+    <t>SPINV2526003901</t>
+  </si>
+  <si>
+    <t>SINV25260003955</t>
+  </si>
+  <si>
+    <t>VCVEND38628</t>
+  </si>
+  <si>
+    <t>S.B. RESHELLERS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>pavillionhotel@sbreshellers.com</t>
+  </si>
+  <si>
+    <t>27AAACT9142M2ZW</t>
+  </si>
+  <si>
+    <t>416001</t>
+  </si>
+  <si>
+    <t>SPINV2526005581</t>
+  </si>
+  <si>
+    <t>SINV25260006950</t>
+  </si>
+  <si>
+    <t>VCVEND43174</t>
+  </si>
+  <si>
+    <t>SANKAR RAJESWARI</t>
+  </si>
+  <si>
+    <t>gtgrande22@gmail.com</t>
+  </si>
+  <si>
+    <t>33AXFPR2797H272</t>
+  </si>
+  <si>
+    <t>SPINV2526006458</t>
+  </si>
+  <si>
+    <t>SINV25260007894</t>
+  </si>
+  <si>
+    <t>VCVEND45830</t>
+  </si>
+  <si>
+    <t>S A ANAND &amp; ASSOCIATES</t>
+  </si>
+  <si>
+    <t>frontoffice@theprominencehotel.com</t>
+  </si>
+  <si>
+    <t>05ADZFS3150P1Z9</t>
+  </si>
+  <si>
+    <t>SPINV2526006571</t>
+  </si>
+  <si>
+    <t>SINV25260008026</t>
+  </si>
+  <si>
+    <t>VCVEND46139</t>
+  </si>
+  <si>
+    <t>Vanya F and B Chain</t>
+  </si>
+  <si>
+    <t>bookings@thevanya.in</t>
+  </si>
+  <si>
+    <t>29AAXFV5968P1Z1</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>SPINV2526006801</t>
+  </si>
+  <si>
+    <t>SINV25260008276</t>
+  </si>
+  <si>
+    <t>VCVEND46726</t>
+  </si>
+  <si>
+    <t>HOTELZIFY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>support@hotelzify.com</t>
+  </si>
+  <si>
+    <t>29AAGCH5300R1Z5</t>
+  </si>
+  <si>
+    <t>SPINV2526006900</t>
+  </si>
+  <si>
+    <t>SINV25260008384</t>
+  </si>
+  <si>
+    <t>VCVEND47034</t>
+  </si>
+  <si>
+    <t>RAJESH NANDY</t>
+  </si>
+  <si>
+    <t>booking@senseshavelock.com</t>
+  </si>
+  <si>
+    <t>35AQVPN6987C1Z3</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>SPINV2526007320</t>
+  </si>
+  <si>
+    <t>SINV25260008865</t>
+  </si>
+  <si>
+    <t>VCVEND48098</t>
+  </si>
+  <si>
+    <t>PALM BLISS INTERNATIONAL HOTEL</t>
+  </si>
+  <si>
+    <t>Sales@palmblisshotel.in</t>
+  </si>
+  <si>
+    <t>10AAXFP2139A1ZI</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>SPINV2526007502</t>
+  </si>
+  <si>
+    <t>SINV25260009081</t>
+  </si>
+  <si>
+    <t>VCVEND48631</t>
+  </si>
+  <si>
+    <t>G R ENTERPRISES</t>
+  </si>
+  <si>
+    <t>hotelcrystal2016@gmail.com</t>
+  </si>
+  <si>
+    <t>20AAPFG6450P1Z0</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>SPINV2526008078</t>
+  </si>
+  <si>
+    <t>SINV25260010348</t>
+  </si>
+  <si>
+    <t>VCVEND50721</t>
+  </si>
+  <si>
+    <t>ManoPriya Home</t>
+  </si>
+  <si>
+    <t>salesmp.azalea@gmail.com</t>
+  </si>
+  <si>
+    <t>33ACAFM0469RIZV</t>
+  </si>
+  <si>
+    <t>SPINV2526009194</t>
+  </si>
+  <si>
+    <t>SINV25260011786</t>
+  </si>
+  <si>
+    <t>VCVEND55450</t>
+  </si>
+  <si>
+    <t>FABWORTH PROMOTERS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>rakesh.singh@marriott.com;kanika.saha@marriotthotels.com</t>
+  </si>
+  <si>
+    <t>19AAACF9988P1ZG</t>
+  </si>
+  <si>
+    <t>WB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-10409]m/d/yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,9 +685,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,30 +721,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="number_style" xfId="1" xr:uid="{B7CDBCB8-4219-4185-AE1A-A43B29C75207}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,9 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EE6B31-F99C-43F4-A8D5-BB7A94B7D687}">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AI15" workbookViewId="0">
+      <selection activeCell="AU24" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -681,17 +1103,21 @@
     <col min="26" max="26" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="90.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -801,226 +1227,2767 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
     </row>
-    <row r="2" spans="1:37" ht="110" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4">
+        <v>250227527454</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="4">
+        <v>250227527454</v>
+      </c>
+      <c r="I2" s="4">
+        <v>250227527454</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <v>1362</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1362</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="S2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="V2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1362</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>245</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1607</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4">
+        <v>250315767040</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4">
+        <v>250315767040</v>
+      </c>
+      <c r="I3" s="4">
+        <v>250315767040</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>212</v>
+      </c>
+      <c r="N3" s="3">
+        <v>212</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>212</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>250</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4">
+        <v>250210326628</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4">
+        <v>250210326628</v>
+      </c>
+      <c r="I4" s="4">
+        <v>250210326628</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>3070</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3070</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="AB4" s="3">
+        <v>3070</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>553</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>3623</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="4">
-        <v>17403.37</v>
-      </c>
-      <c r="N2" s="4">
-        <v>17403.37</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="5">
-        <v>45663</v>
-      </c>
-      <c r="T2" s="5">
-        <v>45663</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="AK4" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="4">
+        <v>250301903278</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4">
+        <v>250301903278</v>
+      </c>
+      <c r="I5" s="4">
+        <v>250301903278</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>3120</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3120</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>3121</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>562</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>3682</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="4">
+        <v>250307666794</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4">
+        <v>250307666794</v>
+      </c>
+      <c r="I6" s="4">
+        <v>250307666794</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>7001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>7001</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>7001</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1260</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>8261</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25031034094</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4">
+        <v>25031034094</v>
+      </c>
+      <c r="I7" s="4">
+        <v>25031034094</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>444</v>
+      </c>
+      <c r="N7" s="3">
+        <v>444</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>444</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>80</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>524</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="4">
+        <v>250307692838</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4">
+        <v>250307692838</v>
+      </c>
+      <c r="I8" s="4">
+        <v>250307692838</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>36975</v>
+      </c>
+      <c r="N8" s="3">
+        <v>36975</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>36975</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>6655</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>43630</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="4">
+        <v>250317120452</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4">
+        <v>250317120452</v>
+      </c>
+      <c r="I9" s="4">
+        <v>250317120452</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <v>5893</v>
+      </c>
+      <c r="N9" s="3">
+        <v>5893</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W9" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>5893</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1061</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>6954</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4">
+        <v>250309972358</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="4">
+        <v>250309972358</v>
+      </c>
+      <c r="I10" s="4">
+        <v>250309972358</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>2333</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2333</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>2333</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>420</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>2753</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="4">
+        <v>250316914362</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4">
+        <v>250316914362</v>
+      </c>
+      <c r="I11" s="4">
+        <v>250316914362</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>1638</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1638</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W11" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>1638</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>295</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>1933</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25031079160</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4">
+        <v>25031079160</v>
+      </c>
+      <c r="I12" s="4">
+        <v>25031079160</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>11515</v>
+      </c>
+      <c r="N12" s="3">
+        <v>11515</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W12" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>11516</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>2073</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>13588</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="4">
+        <v>250320612032</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="4">
+        <v>250320612032</v>
+      </c>
+      <c r="I13" s="4">
+        <v>250320612032</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>936</v>
+      </c>
+      <c r="N13" s="3">
+        <v>936</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>936</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>169</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>1105</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="4">
+        <v>250317117554</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="4">
+        <v>250317117554</v>
+      </c>
+      <c r="I14" s="4">
+        <v>250317117554</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <v>479</v>
+      </c>
+      <c r="N14" s="3">
+        <v>479</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>479</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>86</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>565</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="4">
+        <v>250306555566</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="4">
+        <v>250306555566</v>
+      </c>
+      <c r="I15" s="4">
+        <v>250306555566</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <v>670</v>
+      </c>
+      <c r="N15" s="3">
+        <v>670</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>669</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>60</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>60</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>790</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="4">
+        <v>250307635354</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="4">
+        <v>250307635354</v>
+      </c>
+      <c r="I16" s="4">
+        <v>250307635354</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <v>448</v>
+      </c>
+      <c r="N16" s="3">
+        <v>448</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>447</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>80</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>528</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="4">
+        <v>250311254654</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="4">
+        <v>250311254654</v>
+      </c>
+      <c r="I17" s="4">
+        <v>250311254654</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <v>46099</v>
+      </c>
+      <c r="N17" s="3">
+        <v>46099</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W17" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>46099</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>8298</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>54397</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="4">
+        <v>250306588802</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4">
+        <v>250306588802</v>
+      </c>
+      <c r="I18" s="4">
+        <v>250306588802</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <v>1134</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1134</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W18" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1134</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>204</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1338</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="4">
+        <v>250227515034</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="4">
+        <v>250227515034</v>
+      </c>
+      <c r="I19" s="4">
+        <v>250227515034</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <v>708</v>
+      </c>
+      <c r="N19" s="3">
+        <v>708</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W19" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>708</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>127</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>835</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="4">
+        <v>250326739790</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="4">
+        <v>250326739790</v>
+      </c>
+      <c r="I20" s="4">
+        <v>250326739790</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <v>1778</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1778</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W20" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1778</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>320</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>2098</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="4">
+        <v>250322973532</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="4">
+        <v>250322973532</v>
+      </c>
+      <c r="I21" s="4">
+        <v>250322973532</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <v>3592</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3592</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W21" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>3591</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>646</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>4238</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="4">
+        <v>250324393888</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="4">
+        <v>250324393888</v>
+      </c>
+      <c r="I22" s="4">
+        <v>250324393888</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <v>281</v>
+      </c>
+      <c r="N22" s="3">
+        <v>281</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W22" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>281</v>
+      </c>
+      <c r="AC22" s="3">
         <v>51</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>17403.53</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>3132.63</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>20536.16</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>332</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4">
+        <v>25031772304</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="4">
+        <v>25031772304</v>
+      </c>
+      <c r="I23" s="4">
+        <v>25031772304</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <v>990</v>
+      </c>
+      <c r="N23" s="3">
+        <v>990</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3">
-        <v>241209409436</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="S23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" s="3">
+        <v>998552</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3">
-        <v>241209409436</v>
-      </c>
-      <c r="I3">
-        <v>241209409436</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="Y23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>990</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>178</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>1168</v>
+      </c>
+      <c r="AG23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M3">
-        <v>364.44</v>
-      </c>
-      <c r="N3">
-        <v>364.44</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="AH23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="AJ23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="6">
-        <v>45663</v>
-      </c>
-      <c r="T3" s="6">
-        <v>45663</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3">
+      <c r="AK23" s="3">
+        <v>400086</v>
+      </c>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="4">
+        <v>250313531970</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="4">
+        <v>250313531970</v>
+      </c>
+      <c r="I24" s="4">
+        <v>250313531970</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W24" s="3">
         <v>998552</v>
       </c>
-      <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3">
-        <v>364.21</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>32.78</v>
-      </c>
-      <c r="AE3">
-        <v>32.78</v>
-      </c>
-      <c r="AF3">
-        <v>429.77</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3">
+      <c r="X24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>324</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>2124</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK24" s="3">
         <v>400086</v>
       </c>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
